--- a/SQA Model.xlsx
+++ b/SQA Model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\Projects\Excel\Software-Quailty-Enginerring-Escel-Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBCD89F1-6EAC-4547-AD97-1830A830EA25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD786EE-3DA4-45F9-866D-BA36F6FCFFF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="hU36deupe87uE8CkwHUKVPm9rk/z0g46waHF1EDQPGHJZLGDJL0vgX/3R3RaZM+h/AoD3FoqehwfJ24mPUSEjA==" workbookSaltValue="dTXsVlwRuRjE++ajoMFp0A==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -98,6 +98,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.0"/>
+  </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -257,21 +260,16 @@
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2"/>
-    <xf numFmtId="2" fontId="4" fillId="3" borderId="1" xfId="4" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="6" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
@@ -281,7 +279,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="2" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="1" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="2" xfId="3" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Calculation" xfId="4" builtinId="22"/>
@@ -571,12 +574,12 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="3" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
     <col min="5" max="5" width="15.140625" customWidth="1"/>
@@ -586,345 +589,345 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="92.25" x14ac:dyDescent="1.35">
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
     </row>
     <row r="3" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" s="11" t="s">
+      <c r="F3" s="10"/>
+      <c r="G3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="10"/>
+      <c r="M3" s="7"/>
     </row>
     <row r="4" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
+      <c r="A4" s="10">
         <v>1</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="D4" s="8">
+      <c r="C4" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D4" s="6">
         <v>1</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="6">
         <v>15</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="8">
+      <c r="F4" s="7"/>
+      <c r="G4" s="6">
         <f>E4</f>
         <v>15</v>
       </c>
-      <c r="H4" s="5">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2">
+      <c r="H4" s="13">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
         <f>C4</f>
         <v>0.5</v>
       </c>
-      <c r="J4" s="9">
-        <f>ROUND(G4+H4-((G4+H4)*I4),2)</f>
+      <c r="J4" s="14">
+        <f>ROUND(G4+H4-((G4+H4)*I4),1)</f>
         <v>7.5</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="2">
         <f>D4</f>
         <v>1</v>
       </c>
       <c r="L4" s="15">
-        <f>ROUND(K4*J4,2)</f>
+        <f>ROUND(K4*J4,1)</f>
         <v>7.5</v>
       </c>
-      <c r="M4" s="10"/>
+      <c r="M4" s="7"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
+      <c r="A5" s="10">
         <v>2</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="D5" s="8">
+      <c r="C5" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D5" s="6">
         <v>2.5</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="6">
         <v>35</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="8">
+      <c r="F5" s="7"/>
+      <c r="G5" s="6">
         <f t="shared" ref="G5:G15" si="0">E5</f>
         <v>35</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="13">
         <f>J4</f>
         <v>7.5</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="1">
         <f t="shared" ref="I5:I15" si="1">C5</f>
         <v>0.5</v>
       </c>
-      <c r="J5" s="9">
-        <f t="shared" ref="J5:J15" si="2">ROUND(G5+H5-((G5+H5)*I5),2)</f>
-        <v>21.25</v>
-      </c>
-      <c r="K5" s="3">
+      <c r="J5" s="14">
+        <f t="shared" ref="J5:J15" si="2">ROUND(G5+H5-((G5+H5)*I5),1)</f>
+        <v>21.3</v>
+      </c>
+      <c r="K5" s="2">
         <f t="shared" ref="K5:K15" si="3">D5</f>
         <v>2.5</v>
       </c>
       <c r="L5" s="15">
-        <f t="shared" ref="L5:L15" si="4">ROUND(K5*J5,2)</f>
-        <v>53.13</v>
-      </c>
-      <c r="M5" s="10"/>
+        <f t="shared" ref="L5:L15" si="4">ROUND(K5*J5,1)</f>
+        <v>53.3</v>
+      </c>
+      <c r="M5" s="7"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
+      <c r="A6" s="10">
         <v>3</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="D6" s="8">
+      <c r="C6" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D6" s="6">
         <v>6.5</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="6">
         <v>30</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="8">
+      <c r="F6" s="7"/>
+      <c r="G6" s="6">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="13">
         <f t="shared" ref="H6:H15" si="5">J5</f>
-        <v>21.25</v>
-      </c>
-      <c r="I6" s="2">
+        <v>21.3</v>
+      </c>
+      <c r="I6" s="1">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="14">
         <f t="shared" si="2"/>
-        <v>25.63</v>
-      </c>
-      <c r="K6" s="3">
+        <v>25.7</v>
+      </c>
+      <c r="K6" s="2">
         <f t="shared" si="3"/>
         <v>6.5</v>
       </c>
       <c r="L6" s="15">
         <f t="shared" si="4"/>
-        <v>166.6</v>
-      </c>
-      <c r="M6" s="10"/>
+        <v>167.1</v>
+      </c>
+      <c r="M6" s="7"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
+      <c r="A7" s="10">
         <v>4</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="D7" s="8">
+      <c r="C7" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D7" s="6">
         <v>16</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="6">
         <v>10</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="8">
+      <c r="F7" s="7"/>
+      <c r="G7" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="13">
         <f t="shared" si="5"/>
-        <v>25.63</v>
-      </c>
-      <c r="I7" s="2">
+        <v>25.7</v>
+      </c>
+      <c r="I7" s="1">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="14">
         <f t="shared" si="2"/>
-        <v>17.82</v>
-      </c>
-      <c r="K7" s="3">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="K7" s="2">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="L7" s="15">
         <f t="shared" si="4"/>
-        <v>285.12</v>
-      </c>
-      <c r="M7" s="10"/>
+        <v>286.39999999999998</v>
+      </c>
+      <c r="M7" s="7"/>
     </row>
     <row r="8" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
+      <c r="A8" s="10">
         <v>5</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="D8" s="8">
+      <c r="C8" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D8" s="6">
         <v>16</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="6">
         <v>10</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="8">
+      <c r="F8" s="7"/>
+      <c r="G8" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="13">
         <f t="shared" si="5"/>
-        <v>17.82</v>
-      </c>
-      <c r="I8" s="2">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="I8" s="1">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="14">
         <f t="shared" si="2"/>
-        <v>13.91</v>
-      </c>
-      <c r="K8" s="3">
+        <v>14</v>
+      </c>
+      <c r="K8" s="2">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="L8" s="15">
         <f t="shared" si="4"/>
-        <v>222.56</v>
-      </c>
-      <c r="M8" s="10"/>
+        <v>224</v>
+      </c>
+      <c r="M8" s="7"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
+      <c r="A9" s="10">
         <v>6</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="D9" s="8">
+      <c r="C9" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D9" s="6">
         <v>40</v>
       </c>
-      <c r="E9" s="8">
-        <v>0</v>
-      </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="8">
+      <c r="E9" s="6">
+        <v>0</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="13">
         <f t="shared" si="5"/>
-        <v>13.91</v>
-      </c>
-      <c r="I9" s="2">
+        <v>14</v>
+      </c>
+      <c r="I9" s="1">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="14">
         <f t="shared" si="2"/>
-        <v>6.96</v>
-      </c>
-      <c r="K9" s="3">
+        <v>7</v>
+      </c>
+      <c r="K9" s="2">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="L9" s="15">
         <f t="shared" si="4"/>
-        <v>278.39999999999998</v>
-      </c>
-      <c r="M9" s="10"/>
+        <v>280</v>
+      </c>
+      <c r="M9" s="7"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
+      <c r="A10" s="10">
         <v>7</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="5">
         <v>1</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="6">
         <v>110</v>
       </c>
-      <c r="E10" s="8">
-        <v>0</v>
-      </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="8">
+      <c r="E10" s="6">
+        <v>0</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="13">
         <f t="shared" si="5"/>
-        <v>6.96</v>
-      </c>
-      <c r="I10" s="2">
+        <v>7</v>
+      </c>
+      <c r="I10" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="2">
         <f t="shared" si="3"/>
         <v>110</v>
       </c>
@@ -932,36 +935,36 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M10" s="10"/>
+      <c r="M10" s="7"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="13">
+      <c r="A11" s="10">
         <v>8</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="8">
+      <c r="B11" s="4"/>
+      <c r="C11" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="1">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -969,36 +972,36 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M11" s="10"/>
+      <c r="M11" s="7"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="13">
+      <c r="A12" s="10">
         <v>9</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="8">
+      <c r="B12" s="4"/>
+      <c r="C12" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="1">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -1006,36 +1009,36 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M12" s="10"/>
+      <c r="M12" s="7"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="13">
+      <c r="A13" s="10">
         <v>10</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="8">
+      <c r="B13" s="4"/>
+      <c r="C13" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="1">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J13" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -1043,36 +1046,36 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M13" s="10"/>
+      <c r="M13" s="7"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="13">
+      <c r="A14" s="10">
         <v>11</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="8">
+      <c r="B14" s="4"/>
+      <c r="C14" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="1">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J14" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -1080,36 +1083,36 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M14" s="10"/>
+      <c r="M14" s="7"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="13">
+      <c r="A15" s="10">
         <v>12</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="8">
+      <c r="B15" s="4"/>
+      <c r="C15" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="1">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J15" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -1117,22 +1120,22 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M15" s="10"/>
+      <c r="M15" s="7"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/SQA Model.xlsx
+++ b/SQA Model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\Projects\Excel\Software-Quailty-Enginerring-Escel-Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD786EE-3DA4-45F9-866D-BA36F6FCFFF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{485B0A9D-29FC-40FA-83B5-16FF410DB60C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="hU36deupe87uE8CkwHUKVPm9rk/z0g46waHF1EDQPGHJZLGDJL0vgX/3R3RaZM+h/AoD3FoqehwfJ24mPUSEjA==" workbookSaltValue="dTXsVlwRuRjE++ajoMFp0A==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -99,7 +99,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -279,12 +279,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="2" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="1" xfId="4" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="2" xfId="3" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Calculation" xfId="4" builtinId="22"/>
@@ -573,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{598496FE-6CDC-40CD-ADAA-B9E60B052F62}">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -589,16 +589,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="92.25" x14ac:dyDescent="1.35">
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
     </row>
     <row r="3" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
@@ -658,22 +658,22 @@
         <f>E4</f>
         <v>15</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="12">
         <v>0</v>
       </c>
       <c r="I4" s="1">
         <f>C4</f>
         <v>0.5</v>
       </c>
-      <c r="J4" s="14">
-        <f>ROUND(G4+H4-((G4+H4)*I4),1)</f>
+      <c r="J4" s="13">
+        <f>ROUND((G4+H4)*I4,1)</f>
         <v>7.5</v>
       </c>
       <c r="K4" s="2">
         <f>D4</f>
         <v>1</v>
       </c>
-      <c r="L4" s="15">
+      <c r="L4" s="14">
         <f>ROUND(K4*J4,1)</f>
         <v>7.5</v>
       </c>
@@ -700,7 +700,7 @@
         <f t="shared" ref="G5:G15" si="0">E5</f>
         <v>35</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="12">
         <f>J4</f>
         <v>7.5</v>
       </c>
@@ -708,15 +708,15 @@
         <f t="shared" ref="I5:I15" si="1">C5</f>
         <v>0.5</v>
       </c>
-      <c r="J5" s="14">
-        <f t="shared" ref="J5:J15" si="2">ROUND(G5+H5-((G5+H5)*I5),1)</f>
+      <c r="J5" s="13">
+        <f t="shared" ref="J5:J15" si="2">ROUND((G5+H5)*I5,1)</f>
         <v>21.3</v>
       </c>
       <c r="K5" s="2">
         <f t="shared" ref="K5:K15" si="3">D5</f>
         <v>2.5</v>
       </c>
-      <c r="L5" s="15">
+      <c r="L5" s="14">
         <f t="shared" ref="L5:L15" si="4">ROUND(K5*J5,1)</f>
         <v>53.3</v>
       </c>
@@ -743,7 +743,7 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="12">
         <f t="shared" ref="H6:H15" si="5">J5</f>
         <v>21.3</v>
       </c>
@@ -751,7 +751,7 @@
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J6" s="13">
         <f t="shared" si="2"/>
         <v>25.7</v>
       </c>
@@ -759,7 +759,7 @@
         <f t="shared" si="3"/>
         <v>6.5</v>
       </c>
-      <c r="L6" s="15">
+      <c r="L6" s="14">
         <f t="shared" si="4"/>
         <v>167.1</v>
       </c>
@@ -786,7 +786,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="12">
         <f t="shared" si="5"/>
         <v>25.7</v>
       </c>
@@ -794,7 +794,7 @@
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="13">
         <f t="shared" si="2"/>
         <v>17.899999999999999</v>
       </c>
@@ -802,7 +802,7 @@
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="L7" s="15">
+      <c r="L7" s="14">
         <f t="shared" si="4"/>
         <v>286.39999999999998</v>
       </c>
@@ -829,7 +829,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="12">
         <f t="shared" si="5"/>
         <v>17.899999999999999</v>
       </c>
@@ -837,7 +837,7 @@
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J8" s="13">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
@@ -845,7 +845,7 @@
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="L8" s="15">
+      <c r="L8" s="14">
         <f t="shared" si="4"/>
         <v>224</v>
       </c>
@@ -872,7 +872,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="12">
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
@@ -880,7 +880,7 @@
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J9" s="13">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
@@ -888,7 +888,7 @@
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="L9" s="15">
+      <c r="L9" s="14">
         <f t="shared" si="4"/>
         <v>280</v>
       </c>
@@ -915,7 +915,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="12">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
@@ -923,17 +923,17 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J10" s="14">
+      <c r="J10" s="13">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K10" s="2">
         <f t="shared" si="3"/>
         <v>110</v>
       </c>
-      <c r="L10" s="15">
+      <c r="L10" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>770</v>
       </c>
       <c r="M10" s="7"/>
     </row>
@@ -952,23 +952,23 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11" s="12">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I11" s="1">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="J11" s="14">
+      <c r="J11" s="13">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="K11" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L11" s="15">
+      <c r="L11" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -989,23 +989,23 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H12" s="12">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="I12" s="1">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="J12" s="14">
+      <c r="J12" s="13">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="K12" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L12" s="15">
+      <c r="L12" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -1026,23 +1026,23 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H13" s="12">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="I13" s="1">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="J13" s="14">
+      <c r="J13" s="13">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="K13" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L13" s="15">
+      <c r="L13" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -1063,23 +1063,23 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H14" s="12">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="I14" s="1">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="J14" s="14">
+      <c r="J14" s="13">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K14" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L14" s="15">
+      <c r="L14" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -1100,23 +1100,23 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H15" s="12">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I15" s="1">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="J15" s="14">
+      <c r="J15" s="13">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="K15" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L15" s="15">
+      <c r="L15" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
